--- a/preb exam/Hüseyin.xlsx
+++ b/preb exam/Hüseyin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWS\preb exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E88DB9-D72A-4F26-BD78-EC23B338C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929AC38-B6DC-40E8-B648-AD710B2ABCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9060" yWindow="0" windowWidth="9165" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>SKOR</t>
   </si>
@@ -56,29 +56,50 @@
     <t>D</t>
   </si>
   <si>
-    <t>B, C</t>
-  </si>
-  <si>
-    <t>C, D</t>
-  </si>
-  <si>
-    <t>A, C</t>
-  </si>
-  <si>
-    <t>c, E</t>
-  </si>
-  <si>
-    <t>A, D</t>
-  </si>
-  <si>
-    <t>B, E</t>
+    <t>C??</t>
+  </si>
+  <si>
+    <t>B,D</t>
+  </si>
+  <si>
+    <t>B??</t>
+  </si>
+  <si>
+    <t>A,E</t>
+  </si>
+  <si>
+    <t>DENEME 2</t>
+  </si>
+  <si>
+    <t>D??</t>
+  </si>
+  <si>
+    <t>A??</t>
+  </si>
+  <si>
+    <t>B?</t>
+  </si>
+  <si>
+    <t>C,E??</t>
+  </si>
+  <si>
+    <t>D,E??</t>
+  </si>
+  <si>
+    <t>A,C</t>
+  </si>
+  <si>
+    <t>A,C?</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,12 +137,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFD1D2D3"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,7 +196,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,7 +212,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,18 +511,18 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -517,13 +531,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -531,10 +539,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,11 +552,8 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -556,12 +561,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
@@ -572,10 +574,7 @@
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
@@ -586,11 +585,8 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -598,10 +594,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,13 +605,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -623,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,13 +627,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -648,10 +638,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
         <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,10 +649,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -670,418 +660,340 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
@@ -1090,10 +1002,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -1103,8 +1015,8 @@
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
+      <c r="C50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1112,10 +1024,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -1123,13 +1035,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1137,12 +1043,9 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
@@ -1151,13 +1054,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -1165,10 +1062,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -1176,10 +1070,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1187,12 +1078,9 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="C57">
         <v>1</v>
       </c>
     </row>
@@ -1201,13 +1089,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -1222,10 +1104,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -1233,10 +1115,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -1244,12 +1126,9 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="C61">
         <v>1</v>
       </c>
     </row>
@@ -1258,12 +1137,9 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="C62">
         <v>1</v>
       </c>
     </row>
@@ -1272,13 +1148,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -1286,59 +1156,50 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="3"/>
-      <c r="D68">
-        <f>SUM(D3:D67)</f>
-        <v>36.5</v>
+      <c r="C68">
+        <f>SUM(C3:C67)</f>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
